--- a/sweep_Nb_summary.xlsx
+++ b/sweep_Nb_summary.xlsx
@@ -490,7 +490,7 @@
         <v>101</v>
       </c>
       <c r="B2" t="n">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="C2" t="n">
         <v>51</v>
@@ -499,22 +499,22 @@
         <v>1000</v>
       </c>
       <c r="E2" t="n">
-        <v>61.12552118301392</v>
+        <v>65.04404711723328</v>
       </c>
       <c r="F2" t="n">
-        <v>3193</v>
+        <v>3212</v>
       </c>
       <c r="G2" t="n">
-        <v>7.938226190162823e-06</v>
+        <v>7.898438525444362e-06</v>
       </c>
       <c r="H2" t="n">
-        <v>3.368586121155204e-08</v>
+        <v>1.173609476268211e-08</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0008104931330308318</v>
+        <v>0.0003567636013031006</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0002366402409833214</v>
+        <v>0.0002938740268357296</v>
       </c>
     </row>
     <row r="3">
@@ -522,7 +522,7 @@
         <v>101</v>
       </c>
       <c r="B3" t="n">
-        <v>21</v>
+        <v>501</v>
       </c>
       <c r="C3" t="n">
         <v>51</v>
@@ -531,22 +531,22 @@
         <v>1000</v>
       </c>
       <c r="E3" t="n">
-        <v>62.75541949272156</v>
+        <v>112.2435493469238</v>
       </c>
       <c r="F3" t="n">
-        <v>3196</v>
+        <v>3202</v>
       </c>
       <c r="G3" t="n">
-        <v>9.045361366588622e-06</v>
+        <v>8.839251677272841e-06</v>
       </c>
       <c r="H3" t="n">
-        <v>3.263451375801196e-08</v>
+        <v>1.971152308044566e-08</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0007696449756622314</v>
+        <v>0.000634610652923584</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0002511819627016136</v>
+        <v>0.0002946141049625578</v>
       </c>
     </row>
     <row r="4">
@@ -554,7 +554,7 @@
         <v>101</v>
       </c>
       <c r="B4" t="n">
-        <v>51</v>
+        <v>2501</v>
       </c>
       <c r="C4" t="n">
         <v>51</v>
@@ -563,22 +563,22 @@
         <v>1000</v>
       </c>
       <c r="E4" t="n">
-        <v>59.52163147926331</v>
+        <v>310.1940259933472</v>
       </c>
       <c r="F4" t="n">
-        <v>3164</v>
+        <v>3118</v>
       </c>
       <c r="G4" t="n">
-        <v>1.233198054251261e-05</v>
+        <v>8.641478416393511e-06</v>
       </c>
       <c r="H4" t="n">
-        <v>3.959373984230297e-08</v>
+        <v>4.092133920607921e-08</v>
       </c>
       <c r="I4" t="n">
-        <v>0.001091659069061279</v>
+        <v>0.0006175637245178223</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0003648778103395407</v>
+        <v>0.0004052991160668311</v>
       </c>
     </row>
     <row r="5">
@@ -586,7 +586,7 @@
         <v>101</v>
       </c>
       <c r="B5" t="n">
-        <v>101</v>
+        <v>5001</v>
       </c>
       <c r="C5" t="n">
         <v>51</v>
@@ -595,22 +595,22 @@
         <v>1000</v>
       </c>
       <c r="E5" t="n">
-        <v>67.6435022354126</v>
+        <v>724.9492645263672</v>
       </c>
       <c r="F5" t="n">
-        <v>3197</v>
+        <v>3202</v>
       </c>
       <c r="G5" t="n">
-        <v>7.887298124842346e-06</v>
+        <v>8.845308002491947e-06</v>
       </c>
       <c r="H5" t="n">
-        <v>2.194298787117077e-08</v>
+        <v>1.259180493207168e-07</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0008437484502792358</v>
+        <v>0.001952946186065674</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0002537099768454286</v>
+        <v>0.001086823506322213</v>
       </c>
     </row>
   </sheetData>
